--- a/performance_test.xlsx
+++ b/performance_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimd\source\git_Project\discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC19677-5C31-452C-8E15-58BE56EBBECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E88EC-7AA6-4AA5-9CFC-EB8FEEA42C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Initial Ma</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,12 +63,28 @@
     <t>Mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>CFD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFD/FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFD/FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +104,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,23 +144,21 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -150,13 +170,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -436,28 +449,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.77734375" customWidth="1"/>
+    <col min="1" max="12" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -474,14 +489,26 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -497,17 +524,31 @@
       <c r="E3">
         <v>972</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
+        <v>1126</v>
+      </c>
+      <c r="G3">
+        <v>972</v>
+      </c>
+      <c r="H3" s="1">
         <f>D3/$C3</f>
         <v>1.2737556561085972</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="1">
         <f>E3/$C3</f>
         <v>1.0995475113122173</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <f>F3/$C3</f>
+        <v>1.2737556561085972</v>
+      </c>
+      <c r="K3" s="5">
+        <f>G3/$C3</f>
+        <v>1.0995475113122173</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -523,17 +564,31 @@
       <c r="E4">
         <v>55816701</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F51" si="0">D4/$C4</f>
+      <c r="F4">
+        <v>884</v>
+      </c>
+      <c r="G4">
+        <v>2425</v>
+      </c>
+      <c r="H4" s="1">
+        <f>D4/$C4</f>
         <v>1.3154761904761905</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" ref="G4:G51" si="1">E4/$C4</f>
+      <c r="I4" s="1">
+        <f>E4/$C4</f>
         <v>83060.56696428571</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J51" si="0">F4/$C4</f>
+        <v>1.3154761904761905</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K51" si="1">G4/$C4</f>
+        <v>3.6086309523809526</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -549,17 +604,31 @@
       <c r="E5">
         <v>4320</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
+      <c r="F5">
+        <v>608</v>
+      </c>
+      <c r="G5">
+        <v>2054</v>
+      </c>
+      <c r="H5" s="1">
+        <f>D5/$C5</f>
         <v>0.98064516129032253</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" si="1"/>
+      <c r="I5" s="1">
+        <f>E5/$C5</f>
         <v>6.967741935483871</v>
       </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.98064516129032253</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3129032258064517</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -575,17 +644,31 @@
       <c r="E6">
         <v>102191361</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
+      <c r="F6">
+        <v>518</v>
+      </c>
+      <c r="G6">
+        <v>24348</v>
+      </c>
+      <c r="H6" s="1">
+        <f>D6/$C6</f>
         <v>0.90243902439024393</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
+      <c r="I6" s="1">
+        <f>E6/$C6</f>
         <v>178033.72996515679</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>42.418118466898953</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -601,17 +684,31 @@
       <c r="E7">
         <v>323</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
+      <c r="F7">
+        <v>520</v>
+      </c>
+      <c r="G7">
+        <v>323</v>
+      </c>
+      <c r="H7" s="1">
+        <f>D7/$C7</f>
         <v>1.0116731517509727</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
+      <c r="I7" s="1">
+        <f>E7/$C7</f>
         <v>0.62840466926070038</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0116731517509727</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.62840466926070038</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -627,17 +724,31 @@
       <c r="E8">
         <v>364</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <v>576</v>
+      </c>
+      <c r="G8">
+        <v>364</v>
+      </c>
+      <c r="H8" s="1">
+        <f>D8/$C8</f>
         <v>0.81355932203389836</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
+      <c r="I8" s="1">
+        <f>E8/$C8</f>
         <v>0.51412429378531077</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81355932203389836</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51412429378531077</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -653,17 +764,30 @@
       <c r="E9">
         <v>527</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
+      <c r="F9">
+        <v>840</v>
+      </c>
+      <c r="G9">
+        <v>527</v>
+      </c>
+      <c r="H9" s="1">
+        <f>D9/$C9</f>
         <v>1.0421836228287842</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
+      <c r="I9" s="1">
+        <f>E9/$C9</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0421836228287842</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -679,17 +803,30 @@
       <c r="E10">
         <v>329</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
+      <c r="F10">
+        <v>504</v>
+      </c>
+      <c r="G10">
+        <v>329</v>
+      </c>
+      <c r="H10" s="1">
+        <f>D10/$C10</f>
         <v>0.82084690553745931</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
+      <c r="I10" s="1">
+        <f>E10/$C10</f>
         <v>0.53583061889250816</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82084690553745931</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53583061889250816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -705,17 +842,30 @@
       <c r="E11">
         <v>335</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
+      <c r="F11">
+        <v>504</v>
+      </c>
+      <c r="G11">
+        <v>335</v>
+      </c>
+      <c r="H11" s="1">
+        <f>D11/$C11</f>
         <v>0.72</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
+      <c r="I11" s="1">
+        <f>E11/$C11</f>
         <v>0.47857142857142859</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47857142857142859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -731,17 +881,30 @@
       <c r="E12">
         <v>313</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <v>508</v>
+      </c>
+      <c r="G12">
+        <v>313</v>
+      </c>
+      <c r="H12" s="1">
+        <f>D12/$C12</f>
         <v>0.70360110803324105</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
+      <c r="I12" s="1">
+        <f>E12/$C12</f>
         <v>0.43351800554016623</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70360110803324105</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43351800554016623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -757,16 +920,30 @@
       <c r="E13">
         <v>376</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <v>602</v>
+      </c>
+      <c r="G13">
+        <v>381</v>
+      </c>
+      <c r="H13" s="1">
+        <f>D13/$C13</f>
         <v>0.74689826302729534</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="1"/>
+      <c r="I13" s="1">
+        <f>E13/$C13</f>
         <v>0.4665012406947891</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74689826302729534</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47270471464019853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
@@ -782,16 +959,30 @@
       <c r="E14">
         <v>319</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <v>588</v>
+      </c>
+      <c r="G14">
+        <v>323</v>
+      </c>
+      <c r="H14" s="1">
+        <f>D14/$C14</f>
         <v>0.9426751592356688</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="1"/>
+      <c r="I14" s="1">
+        <f>E14/$C14</f>
         <v>0.5079617834394905</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93630573248407645</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51433121019108285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -807,16 +998,30 @@
       <c r="E15">
         <v>358</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
+      <c r="F15">
+        <v>700</v>
+      </c>
+      <c r="G15">
+        <v>363</v>
+      </c>
+      <c r="H15" s="1">
+        <f>D15/$C15</f>
         <v>1.0174418604651163</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="1"/>
+      <c r="I15" s="1">
+        <f>E15/$C15</f>
         <v>0.52034883720930236</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0174418604651163</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.52761627906976749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -832,16 +1037,30 @@
       <c r="E16">
         <v>360</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
+      <c r="F16">
+        <v>566</v>
+      </c>
+      <c r="G16">
+        <v>359</v>
+      </c>
+      <c r="H16" s="1">
+        <f>D16/$C16</f>
         <v>0.76693766937669372</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="1"/>
+      <c r="I16" s="1">
+        <f>E16/$C16</f>
         <v>0.48780487804878048</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76693766937669372</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48644986449864497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -857,16 +1076,30 @@
       <c r="E17">
         <v>196205963</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
+      <c r="F17">
+        <v>2788</v>
+      </c>
+      <c r="G17">
+        <v>2252</v>
+      </c>
+      <c r="H17" s="1">
+        <f>D17/$C17</f>
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="1"/>
+      <c r="I17" s="1">
+        <f>E17/$C17</f>
         <v>127738.25716145833</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8151041666666667</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4661458333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -882,16 +1115,30 @@
       <c r="E18">
         <v>344498</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
+      <c r="F18">
+        <v>2728</v>
+      </c>
+      <c r="G18">
+        <v>1924</v>
+      </c>
+      <c r="H18" s="1">
+        <f>D18/$C18</f>
         <v>2.992565055762082</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="1"/>
+      <c r="I18" s="1">
+        <f>E18/$C18</f>
         <v>320.16542750929369</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5353159851301115</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7881040892193309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -907,16 +1154,30 @@
       <c r="E19">
         <v>26641792</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
+      <c r="F19">
+        <v>1864</v>
+      </c>
+      <c r="G19">
+        <v>1484</v>
+      </c>
+      <c r="H19" s="1">
+        <f>D19/$C19</f>
         <v>1.9246861924686192</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
+      <c r="I19" s="1">
+        <f>E19/$C19</f>
         <v>27867.983263598326</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9497907949790796</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5523012552301256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -932,16 +1193,30 @@
       <c r="E20">
         <v>324</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
+      <c r="F20">
+        <v>456</v>
+      </c>
+      <c r="G20">
+        <v>324</v>
+      </c>
+      <c r="H20" s="1">
+        <f>D20/$C20</f>
         <v>0.890625</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
+      <c r="I20" s="1">
+        <f>E20/$C20</f>
         <v>0.6328125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.890625</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -957,16 +1232,30 @@
       <c r="E21">
         <v>302</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
+      <c r="F21">
+        <v>392</v>
+      </c>
+      <c r="G21">
+        <v>302</v>
+      </c>
+      <c r="H21" s="1">
+        <f>D21/$C21</f>
         <v>0.83760683760683763</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="1"/>
+      <c r="I21" s="1">
+        <f>E21/$C21</f>
         <v>0.64529914529914534</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83760683760683763</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64529914529914534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -982,16 +1271,30 @@
       <c r="E22">
         <v>280</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
+      <c r="F22">
+        <v>524</v>
+      </c>
+      <c r="G22">
+        <v>280</v>
+      </c>
+      <c r="H22" s="1">
+        <f>D22/$C22</f>
         <v>0.77976190476190477</v>
       </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
+      <c r="I22" s="1">
+        <f>E22/$C22</f>
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77976190476190477</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1007,16 +1310,30 @@
       <c r="E23">
         <v>1364</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
+      <c r="F23">
+        <v>1196</v>
+      </c>
+      <c r="G23">
+        <v>1636</v>
+      </c>
+      <c r="H23" s="1">
+        <f>D23/$C23</f>
         <v>0.7827225130890052</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
+      <c r="I23" s="1">
+        <f>E23/$C23</f>
         <v>0.89267015706806285</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7827225130890052</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0706806282722514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.5</v>
       </c>
@@ -1032,16 +1349,30 @@
       <c r="E24">
         <v>313</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
+      <c r="F24">
+        <v>486</v>
+      </c>
+      <c r="G24">
+        <v>314</v>
+      </c>
+      <c r="H24" s="1">
+        <f>D24/$C24</f>
         <v>0.89010989010989006</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" si="1"/>
+      <c r="I24" s="1">
+        <f>E24/$C24</f>
         <v>0.57326007326007322</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57509157509157505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.5</v>
       </c>
@@ -1057,16 +1388,30 @@
       <c r="E25">
         <v>313</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
+      <c r="F25">
+        <v>486</v>
+      </c>
+      <c r="G25">
+        <v>314</v>
+      </c>
+      <c r="H25" s="1">
+        <f>D25/$C25</f>
         <v>0.89667896678966785</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
+      <c r="I25" s="1">
+        <f>E25/$C25</f>
         <v>0.57749077490774903</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89667896678966785</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57933579335793361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.5</v>
       </c>
@@ -1082,16 +1427,30 @@
       <c r="E26">
         <v>319</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
+      <c r="F26">
+        <v>486</v>
+      </c>
+      <c r="G26">
+        <v>320</v>
+      </c>
+      <c r="H26" s="1">
+        <f>D26/$C26</f>
         <v>0.9274809160305344</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
+      <c r="I26" s="1">
+        <f>E26/$C26</f>
         <v>0.60877862595419852</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9274809160305344</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.61068702290076338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.5</v>
       </c>
@@ -1107,16 +1466,30 @@
       <c r="E27">
         <v>382</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
+      <c r="F27">
+        <v>478</v>
+      </c>
+      <c r="G27">
+        <v>386</v>
+      </c>
+      <c r="H27" s="1">
+        <f>D27/$C27</f>
         <v>1.0301724137931034</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="1"/>
+      <c r="I27" s="1">
+        <f>E27/$C27</f>
         <v>0.82327586206896552</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0301724137931034</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8318965517241379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.5</v>
       </c>
@@ -1132,16 +1505,30 @@
       <c r="E28">
         <v>268</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
+      <c r="F28">
+        <v>374</v>
+      </c>
+      <c r="G28">
+        <v>268</v>
+      </c>
+      <c r="H28" s="1">
+        <f>D28/$C28</f>
         <v>0.84234234234234229</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
+      <c r="I28" s="1">
+        <f>E28/$C28</f>
         <v>0.60360360360360366</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84234234234234229</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>0.60360360360360366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.5</v>
       </c>
@@ -1157,16 +1544,30 @@
       <c r="E29">
         <v>284</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
+      <c r="F29">
+        <v>432</v>
+      </c>
+      <c r="G29">
+        <v>284</v>
+      </c>
+      <c r="H29" s="1">
+        <f>D29/$C29</f>
         <v>0.81509433962264155</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="1"/>
+      <c r="I29" s="1">
+        <f>E29/$C29</f>
         <v>0.53584905660377358</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81509433962264155</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53584905660377358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.5</v>
       </c>
@@ -1182,16 +1583,30 @@
       <c r="E30">
         <v>328</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
+      <c r="F30">
+        <v>524</v>
+      </c>
+      <c r="G30">
+        <v>328</v>
+      </c>
+      <c r="H30" s="1">
+        <f>D30/$C30</f>
         <v>0.85620915032679734</v>
       </c>
-      <c r="G30" s="3">
-        <f t="shared" si="1"/>
+      <c r="I30" s="1">
+        <f>E30/$C30</f>
         <v>0.53594771241830064</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.85620915032679734</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53594771241830064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1207,16 +1622,30 @@
       <c r="E31">
         <v>261</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="0"/>
+      <c r="F31">
+        <v>396</v>
+      </c>
+      <c r="G31">
+        <v>262</v>
+      </c>
+      <c r="H31" s="1">
+        <f>D31/$C31</f>
         <v>0.77647058823529413</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="1"/>
+      <c r="I31" s="1">
+        <f>E31/$C31</f>
         <v>0.5117647058823529</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51372549019607838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1232,16 +1661,30 @@
       <c r="E32">
         <v>261</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
+      <c r="F32">
+        <v>396</v>
+      </c>
+      <c r="G32">
+        <v>262</v>
+      </c>
+      <c r="H32" s="1">
+        <f>D32/$C32</f>
         <v>0.81481481481481477</v>
       </c>
-      <c r="G32" s="3">
-        <f t="shared" si="1"/>
+      <c r="I32" s="1">
+        <f>E32/$C32</f>
         <v>0.53703703703703709</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53909465020576131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1257,16 +1700,30 @@
       <c r="E33">
         <v>257</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
+      <c r="F33">
+        <v>396</v>
+      </c>
+      <c r="G33">
+        <v>258</v>
+      </c>
+      <c r="H33" s="1">
+        <f>D33/$C33</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" si="1"/>
+      <c r="I33" s="1">
+        <f>E33/$C33</f>
         <v>0.54914529914529919</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55128205128205132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1282,16 +1739,30 @@
       <c r="E34">
         <v>265</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
+      <c r="F34">
+        <v>380</v>
+      </c>
+      <c r="G34">
+        <v>265</v>
+      </c>
+      <c r="H34" s="1">
+        <f>D34/$C34</f>
         <v>0.86363636363636365</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="1"/>
+      <c r="I34" s="1">
+        <f>E34/$C34</f>
         <v>0.60227272727272729</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="1"/>
+        <v>0.60227272727272729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1307,16 +1778,30 @@
       <c r="E35">
         <v>292</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="0"/>
+      <c r="F35">
+        <v>458</v>
+      </c>
+      <c r="G35">
+        <v>292</v>
+      </c>
+      <c r="H35" s="1">
+        <f>D35/$C35</f>
         <v>1.0132743362831858</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" si="1"/>
+      <c r="I35" s="1">
+        <f>E35/$C35</f>
         <v>0.64601769911504425</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0132743362831858</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64601769911504425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1332,16 +1817,30 @@
       <c r="E36">
         <v>273</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
+      <c r="F36">
+        <v>422</v>
+      </c>
+      <c r="G36">
+        <v>273</v>
+      </c>
+      <c r="H36" s="1">
+        <f>D36/$C36</f>
         <v>0.75899280575539574</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="1"/>
+      <c r="I36" s="1">
+        <f>E36/$C36</f>
         <v>0.49100719424460432</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75899280575539574</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49100719424460432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1357,16 +1856,30 @@
       <c r="E37">
         <v>284</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="0"/>
+      <c r="F37">
+        <v>466</v>
+      </c>
+      <c r="G37">
+        <v>284</v>
+      </c>
+      <c r="H37" s="1">
+        <f>D37/$C37</f>
         <v>0.86296296296296293</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" si="1"/>
+      <c r="I37" s="1">
+        <f>E37/$C37</f>
         <v>0.52592592592592591</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86296296296296293</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="1"/>
+        <v>0.52592592592592591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1382,16 +1895,30 @@
       <c r="E38">
         <v>245</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" si="0"/>
+      <c r="F38">
+        <v>378</v>
+      </c>
+      <c r="G38">
+        <v>245</v>
+      </c>
+      <c r="H38" s="1">
+        <f>D38/$C38</f>
         <v>0.84</v>
       </c>
-      <c r="G38" s="3">
-        <f t="shared" si="1"/>
+      <c r="I38" s="1">
+        <f>E38/$C38</f>
         <v>0.5444444444444444</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5444444444444444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1407,16 +1934,30 @@
       <c r="E39">
         <v>245</v>
       </c>
-      <c r="F39" s="3">
-        <f t="shared" si="0"/>
+      <c r="F39">
+        <v>378</v>
+      </c>
+      <c r="G39">
+        <v>245</v>
+      </c>
+      <c r="H39" s="1">
+        <f>D39/$C39</f>
         <v>0.84</v>
       </c>
-      <c r="G39" s="3">
-        <f t="shared" si="1"/>
+      <c r="I39" s="1">
+        <f>E39/$C39</f>
         <v>0.5444444444444444</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5444444444444444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1432,16 +1973,30 @@
       <c r="E40">
         <v>243</v>
       </c>
-      <c r="F40" s="3">
-        <f t="shared" si="0"/>
+      <c r="F40">
+        <v>378</v>
+      </c>
+      <c r="G40">
+        <v>243</v>
+      </c>
+      <c r="H40" s="1">
+        <f>D40/$C40</f>
         <v>0.79411764705882348</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="1"/>
+      <c r="I40" s="1">
+        <f>E40/$C40</f>
         <v>0.51050420168067223</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51050420168067223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1457,16 +2012,30 @@
       <c r="E41">
         <v>244</v>
       </c>
-      <c r="F41" s="3">
-        <f t="shared" si="0"/>
+      <c r="F41">
+        <v>374</v>
+      </c>
+      <c r="G41">
+        <v>245</v>
+      </c>
+      <c r="H41" s="1">
+        <f>D41/$C41</f>
         <v>0.70300751879699253</v>
       </c>
-      <c r="G41" s="3">
-        <f t="shared" si="1"/>
+      <c r="I41" s="1">
+        <f>E41/$C41</f>
         <v>0.45864661654135336</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70300751879699253</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="1"/>
+        <v>0.46052631578947367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1482,16 +2051,30 @@
       <c r="E42">
         <v>249</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="0"/>
+      <c r="F42">
+        <v>402</v>
+      </c>
+      <c r="G42">
+        <v>249</v>
+      </c>
+      <c r="H42" s="1">
+        <f>D42/$C42</f>
         <v>0.7944664031620553</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" si="1"/>
+      <c r="I42" s="1">
+        <f>E42/$C42</f>
         <v>0.49209486166007904</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7944664031620553</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49209486166007904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1507,16 +2090,30 @@
       <c r="E43">
         <v>296</v>
       </c>
-      <c r="F43" s="3">
-        <f t="shared" si="0"/>
+      <c r="F43">
+        <v>420</v>
+      </c>
+      <c r="G43">
+        <v>295</v>
+      </c>
+      <c r="H43" s="1">
+        <f>D43/$C43</f>
         <v>0.84677419354838712</v>
       </c>
-      <c r="G43" s="3">
-        <f t="shared" si="1"/>
+      <c r="I43" s="1">
+        <f>E43/$C43</f>
         <v>0.59677419354838712</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84677419354838712</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="1"/>
+        <v>0.594758064516129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1532,16 +2129,30 @@
       <c r="E44">
         <v>271</v>
       </c>
-      <c r="F44" s="3">
-        <f t="shared" si="0"/>
+      <c r="F44">
+        <v>436</v>
+      </c>
+      <c r="G44">
+        <v>271</v>
+      </c>
+      <c r="H44" s="1">
+        <f>D44/$C44</f>
         <v>0.8582677165354331</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" si="1"/>
+      <c r="I44" s="1">
+        <f>E44/$C44</f>
         <v>0.53346456692913391</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8582677165354331</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53346456692913391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1557,16 +2168,30 @@
       <c r="E45">
         <v>302</v>
       </c>
-      <c r="F45" s="3">
-        <f t="shared" si="0"/>
+      <c r="F45">
+        <v>452</v>
+      </c>
+      <c r="G45">
+        <v>302</v>
+      </c>
+      <c r="H45" s="1">
+        <f>D45/$C45</f>
         <v>0.73615635179153094</v>
       </c>
-      <c r="G45" s="3">
-        <f t="shared" si="1"/>
+      <c r="I45" s="1">
+        <f>E45/$C45</f>
         <v>0.49185667752442996</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73615635179153094</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49185667752442996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1582,16 +2207,30 @@
       <c r="E46">
         <v>298</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" si="0"/>
+      <c r="F46">
+        <v>452</v>
+      </c>
+      <c r="G46">
+        <v>298</v>
+      </c>
+      <c r="H46" s="1">
+        <f>D46/$C46</f>
         <v>0.74342105263157898</v>
       </c>
-      <c r="G46" s="3">
-        <f t="shared" si="1"/>
+      <c r="I46" s="1">
+        <f>E46/$C46</f>
         <v>0.49013157894736842</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74342105263157898</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49013157894736842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1607,16 +2246,30 @@
       <c r="E47">
         <v>294</v>
       </c>
-      <c r="F47" s="3">
-        <f t="shared" si="0"/>
+      <c r="F47">
+        <v>452</v>
+      </c>
+      <c r="G47">
+        <v>294</v>
+      </c>
+      <c r="H47" s="1">
+        <f>D47/$C47</f>
         <v>0.59317585301837272</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" si="1"/>
+      <c r="I47" s="1">
+        <f>E47/$C47</f>
         <v>0.38582677165354329</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59317585301837272</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38582677165354329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1632,16 +2285,30 @@
       <c r="E48">
         <v>277</v>
       </c>
-      <c r="F48" s="3">
-        <f t="shared" si="0"/>
+      <c r="F48">
+        <v>456</v>
+      </c>
+      <c r="G48">
+        <v>278</v>
+      </c>
+      <c r="H48" s="1">
+        <f>D48/$C48</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="G48" s="3">
-        <f t="shared" si="1"/>
+      <c r="I48" s="1">
+        <f>E48/$C48</f>
         <v>0.44391025641025639</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44551282051282054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1657,16 +2324,30 @@
       <c r="E49">
         <v>278</v>
       </c>
-      <c r="F49" s="3">
-        <f t="shared" si="0"/>
+      <c r="F49">
+        <v>480</v>
+      </c>
+      <c r="G49">
+        <v>278</v>
+      </c>
+      <c r="H49" s="1">
+        <f>D49/$C49</f>
         <v>0.87912087912087911</v>
       </c>
-      <c r="G49" s="3">
-        <f t="shared" si="1"/>
+      <c r="I49" s="1">
+        <f>E49/$C49</f>
         <v>0.50915750915750912</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.87912087912087911</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="1"/>
+        <v>0.50915750915750912</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1682,16 +2363,30 @@
       <c r="E50">
         <v>333</v>
       </c>
-      <c r="F50" s="3">
-        <f t="shared" si="0"/>
+      <c r="F50">
+        <v>514</v>
+      </c>
+      <c r="G50">
+        <v>332</v>
+      </c>
+      <c r="H50" s="1">
+        <f>D50/$C50</f>
         <v>0.79566563467492257</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" si="1"/>
+      <c r="I50" s="1">
+        <f>E50/$C50</f>
         <v>0.51547987616099067</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79566563467492257</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51393188854489169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1707,42 +2402,64 @@
       <c r="E51">
         <v>277</v>
       </c>
-      <c r="F51" s="3">
-        <f t="shared" si="0"/>
+      <c r="F51">
+        <v>522</v>
+      </c>
+      <c r="G51">
+        <v>278</v>
+      </c>
+      <c r="H51" s="1">
+        <f>D51/$C51</f>
         <v>0.84740259740259738</v>
       </c>
-      <c r="G51" s="3">
-        <f t="shared" si="1"/>
+      <c r="I51" s="1">
+        <f>E51/$C51</f>
         <v>0.44967532467532467</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84740259740259738</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45129870129870131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="4">
-        <f>AVERAGE(F3:F51)</f>
+      <c r="H52" s="2">
+        <f>AVERAGE(H3:H51)</f>
         <v>0.96862937578797148</v>
       </c>
-      <c r="G52" s="4">
-        <f>AVERAGE(G3:G51)</f>
+      <c r="I52" s="2">
+        <f>AVERAGE(I3:I51)</f>
         <v>8511.2586167235713</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="4"/>
+      <c r="J52" s="2">
+        <f>AVERAGE(J3:J51)</f>
+        <v>0.93549856500824824</v>
+      </c>
+      <c r="K52" s="2">
+        <f>AVERAGE(K3:K51)</f>
+        <v>1.5993121921175784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H1:H8"/>
+    <mergeCell ref="L1:L8"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F3:G51">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="H3:K51">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/performance_test.xlsx
+++ b/performance_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimd\source\git_Project\discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E88EC-7AA6-4AA5-9CFC-EB8FEEA42C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DFE566-0668-410B-9220-42E84AA30F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,15 +33,6 @@
   <si>
     <t>Initial stepL</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForwardDifference</t>
-  </si>
-  <si>
-    <t>CenterDifference</t>
-  </si>
-  <si>
-    <t>BackwardDifference</t>
   </si>
   <si>
     <t>The number of times the iterative process calculates the function(f)</t>
@@ -77,6 +68,18 @@
   </si>
   <si>
     <t>BFD/FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -146,13 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -451,25 +454,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="20.77734375" customWidth="1"/>
+    <col min="1" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -480,31 +484,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -528,7 +532,7 @@
         <v>1126</v>
       </c>
       <c r="G3">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="H3" s="1">
         <f>D3/$C3</f>
@@ -538,13 +542,13 @@
         <f>E3/$C3</f>
         <v>1.0995475113122173</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>F3/$C3</f>
         <v>1.2737556561085972</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <f>G3/$C3</f>
-        <v>1.0995475113122173</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="L3" s="4"/>
     </row>
@@ -568,23 +572,23 @@
         <v>884</v>
       </c>
       <c r="G4">
-        <v>2425</v>
+        <v>990</v>
       </c>
       <c r="H4" s="1">
-        <f>D4/$C4</f>
+        <f t="shared" ref="H4:H51" si="0">D4/$C4</f>
         <v>1.3154761904761905</v>
       </c>
       <c r="I4" s="1">
-        <f>E4/$C4</f>
+        <f t="shared" ref="I4:I51" si="1">E4/$C4</f>
         <v>83060.56696428571</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J51" si="0">F4/$C4</f>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J51" si="2">F4/$C4</f>
         <v>1.3154761904761905</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K51" si="1">G4/$C4</f>
-        <v>3.6086309523809526</v>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K51" si="3">G4/$C4</f>
+        <v>1.4732142857142858</v>
       </c>
       <c r="L4" s="4"/>
     </row>
@@ -608,23 +612,23 @@
         <v>608</v>
       </c>
       <c r="G5">
-        <v>2054</v>
+        <v>654</v>
       </c>
       <c r="H5" s="1">
-        <f>D5/$C5</f>
+        <f t="shared" si="0"/>
         <v>0.98064516129032253</v>
       </c>
       <c r="I5" s="1">
-        <f>E5/$C5</f>
+        <f t="shared" si="1"/>
         <v>6.967741935483871</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
         <v>0.98064516129032253</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="1"/>
-        <v>3.3129032258064517</v>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0548387096774194</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -648,23 +652,23 @@
         <v>518</v>
       </c>
       <c r="G6">
-        <v>24348</v>
+        <v>2346</v>
       </c>
       <c r="H6" s="1">
-        <f>D6/$C6</f>
+        <f t="shared" si="0"/>
         <v>0.90243902439024393</v>
       </c>
       <c r="I6" s="1">
-        <f>E6/$C6</f>
+        <f t="shared" si="1"/>
         <v>178033.72996515679</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
         <v>0.90243902439024393</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="1"/>
-        <v>42.418118466898953</v>
+      <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0871080139372822</v>
       </c>
       <c r="L6" s="4"/>
     </row>
@@ -691,19 +695,19 @@
         <v>323</v>
       </c>
       <c r="H7" s="1">
-        <f>D7/$C7</f>
+        <f t="shared" si="0"/>
         <v>1.0116731517509727</v>
       </c>
       <c r="I7" s="1">
-        <f>E7/$C7</f>
+        <f t="shared" si="1"/>
         <v>0.62840466926070038</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
         <v>1.0116731517509727</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="1"/>
+      <c r="K7" s="3">
+        <f t="shared" si="3"/>
         <v>0.62840466926070038</v>
       </c>
       <c r="L7" s="4"/>
@@ -731,19 +735,19 @@
         <v>364</v>
       </c>
       <c r="H8" s="1">
-        <f>D8/$C8</f>
+        <f t="shared" si="0"/>
         <v>0.81355932203389836</v>
       </c>
       <c r="I8" s="1">
-        <f>E8/$C8</f>
+        <f t="shared" si="1"/>
         <v>0.51412429378531077</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="0"/>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
         <v>0.81355932203389836</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="1"/>
+      <c r="K8" s="3">
+        <f t="shared" si="3"/>
         <v>0.51412429378531077</v>
       </c>
       <c r="L8" s="4"/>
@@ -768,23 +772,23 @@
         <v>840</v>
       </c>
       <c r="G9">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H9" s="1">
-        <f>D9/$C9</f>
+        <f t="shared" si="0"/>
         <v>1.0421836228287842</v>
       </c>
       <c r="I9" s="1">
-        <f>E9/$C9</f>
+        <f t="shared" si="1"/>
         <v>0.65384615384615385</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
         <v>1.0421836228287842</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.65384615384615385</v>
+      <c r="K9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66004962779156329</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -807,23 +811,23 @@
         <v>504</v>
       </c>
       <c r="G10">
-        <v>329</v>
+        <v>579</v>
       </c>
       <c r="H10" s="1">
-        <f>D10/$C10</f>
+        <f t="shared" si="0"/>
         <v>0.82084690553745931</v>
       </c>
       <c r="I10" s="1">
-        <f>E10/$C10</f>
+        <f t="shared" si="1"/>
         <v>0.53583061889250816</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
         <v>0.82084690553745931</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53583061889250816</v>
+      <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.94299674267100975</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -846,23 +850,23 @@
         <v>504</v>
       </c>
       <c r="G11">
-        <v>335</v>
+        <v>583</v>
       </c>
       <c r="H11" s="1">
-        <f>D11/$C11</f>
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
       <c r="I11" s="1">
-        <f>E11/$C11</f>
+        <f t="shared" si="1"/>
         <v>0.47857142857142859</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.47857142857142859</v>
+      <c r="K11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83285714285714285</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -882,26 +886,26 @@
         <v>313</v>
       </c>
       <c r="F12">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G12">
-        <v>313</v>
+        <v>485</v>
       </c>
       <c r="H12" s="1">
-        <f>D12/$C12</f>
+        <f t="shared" si="0"/>
         <v>0.70360110803324105</v>
       </c>
       <c r="I12" s="1">
-        <f>E12/$C12</f>
+        <f t="shared" si="1"/>
         <v>0.43351800554016623</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70360110803324105</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.43351800554016623</v>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.68698060941828254</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67174515235457066</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -921,26 +925,26 @@
         <v>376</v>
       </c>
       <c r="F13">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="G13">
-        <v>381</v>
+        <v>535</v>
       </c>
       <c r="H13" s="1">
-        <f>D13/$C13</f>
+        <f t="shared" si="0"/>
         <v>0.74689826302729534</v>
       </c>
       <c r="I13" s="1">
-        <f>E13/$C13</f>
+        <f t="shared" si="1"/>
         <v>0.4665012406947891</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.74689826302729534</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.47270471464019853</v>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.79652605459057069</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66377171215880892</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -960,26 +964,26 @@
         <v>319</v>
       </c>
       <c r="F14">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="G14">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="H14" s="1">
-        <f>D14/$C14</f>
+        <f t="shared" si="0"/>
         <v>0.9426751592356688</v>
       </c>
       <c r="I14" s="1">
-        <f>E14/$C14</f>
+        <f t="shared" si="1"/>
         <v>0.5079617834394905</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.93630573248407645</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.51433121019108285</v>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95859872611464969</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.68949044585987262</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -999,26 +1003,26 @@
         <v>358</v>
       </c>
       <c r="F15">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="G15">
-        <v>363</v>
+        <v>501</v>
       </c>
       <c r="H15" s="1">
-        <f>D15/$C15</f>
+        <f t="shared" si="0"/>
         <v>1.0174418604651163</v>
       </c>
       <c r="I15" s="1">
-        <f>E15/$C15</f>
+        <f t="shared" si="1"/>
         <v>0.52034883720930236</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0174418604651163</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.52761627906976749</v>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97383720930232553</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72819767441860461</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1038,26 +1042,26 @@
         <v>360</v>
       </c>
       <c r="F16">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G16">
-        <v>359</v>
+        <v>543</v>
       </c>
       <c r="H16" s="1">
-        <f>D16/$C16</f>
+        <f t="shared" si="0"/>
         <v>0.76693766937669372</v>
       </c>
       <c r="I16" s="1">
-        <f>E16/$C16</f>
+        <f t="shared" si="1"/>
         <v>0.48780487804878048</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.76693766937669372</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.48644986449864497</v>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77506775067750677</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73577235772357719</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1077,26 +1081,26 @@
         <v>196205963</v>
       </c>
       <c r="F17">
-        <v>2788</v>
+        <v>1892</v>
       </c>
       <c r="G17">
-        <v>2252</v>
+        <v>1600</v>
       </c>
       <c r="H17" s="1">
-        <f>D17/$C17</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I17" s="1">
-        <f>E17/$C17</f>
+        <f t="shared" si="1"/>
         <v>127738.25716145833</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8151041666666667</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4661458333333333</v>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2317708333333333</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,26 +1120,26 @@
         <v>344498</v>
       </c>
       <c r="F18">
-        <v>2728</v>
+        <v>1460</v>
       </c>
       <c r="G18">
-        <v>1924</v>
+        <v>1240</v>
       </c>
       <c r="H18" s="1">
-        <f>D18/$C18</f>
+        <f t="shared" si="0"/>
         <v>2.992565055762082</v>
       </c>
       <c r="I18" s="1">
-        <f>E18/$C18</f>
+        <f t="shared" si="1"/>
         <v>320.16542750929369</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5353159851301115</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7881040892193309</v>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3568773234200744</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1524163568773234</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1155,26 +1159,26 @@
         <v>26641792</v>
       </c>
       <c r="F19">
-        <v>1864</v>
+        <v>1348</v>
       </c>
       <c r="G19">
-        <v>1484</v>
+        <v>1068</v>
       </c>
       <c r="H19" s="1">
-        <f>D19/$C19</f>
+        <f t="shared" si="0"/>
         <v>1.9246861924686192</v>
       </c>
       <c r="I19" s="1">
-        <f>E19/$C19</f>
+        <f t="shared" si="1"/>
         <v>27867.983263598326</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9497907949790796</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5523012552301256</v>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4100418410041842</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1171548117154813</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,26 +1198,26 @@
         <v>324</v>
       </c>
       <c r="F20">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G20">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="H20" s="1">
-        <f>D20/$C20</f>
+        <f t="shared" si="0"/>
         <v>0.890625</v>
       </c>
       <c r="I20" s="1">
-        <f>E20/$C20</f>
+        <f t="shared" si="1"/>
         <v>0.6328125</v>
       </c>
-      <c r="J20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.890625</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="1"/>
-        <v>0.6328125</v>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.921875</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.8515625</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,26 +1237,26 @@
         <v>302</v>
       </c>
       <c r="F21">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G21">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="H21" s="1">
-        <f>D21/$C21</f>
+        <f t="shared" si="0"/>
         <v>0.83760683760683763</v>
       </c>
       <c r="I21" s="1">
-        <f>E21/$C21</f>
+        <f t="shared" si="1"/>
         <v>0.64529914529914534</v>
       </c>
-      <c r="J21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83760683760683763</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64529914529914534</v>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1272,26 +1276,26 @@
         <v>280</v>
       </c>
       <c r="F22">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="G22">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="H22" s="1">
-        <f>D22/$C22</f>
+        <f t="shared" si="0"/>
         <v>0.77976190476190477</v>
       </c>
       <c r="I22" s="1">
-        <f>E22/$C22</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.77976190476190477</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+      <c r="J22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1311,26 +1315,26 @@
         <v>1364</v>
       </c>
       <c r="F23">
-        <v>1196</v>
+        <v>1352</v>
       </c>
       <c r="G23">
-        <v>1636</v>
+        <v>1224</v>
       </c>
       <c r="H23" s="1">
-        <f>D23/$C23</f>
+        <f t="shared" si="0"/>
         <v>0.7827225130890052</v>
       </c>
       <c r="I23" s="1">
-        <f>E23/$C23</f>
+        <f t="shared" si="1"/>
         <v>0.89267015706806285</v>
       </c>
-      <c r="J23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.7827225130890052</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0706806282722514</v>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88481675392670156</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80104712041884818</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1350,26 +1354,26 @@
         <v>313</v>
       </c>
       <c r="F24">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="G24">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="H24" s="1">
-        <f>D24/$C24</f>
+        <f t="shared" si="0"/>
         <v>0.89010989010989006</v>
       </c>
       <c r="I24" s="1">
-        <f>E24/$C24</f>
+        <f t="shared" si="1"/>
         <v>0.57326007326007322</v>
       </c>
-      <c r="J24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.57509157509157505</v>
+      <c r="J24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78937728937728935</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1389,26 +1393,26 @@
         <v>313</v>
       </c>
       <c r="F25">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="G25">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="H25" s="1">
-        <f>D25/$C25</f>
+        <f t="shared" si="0"/>
         <v>0.89667896678966785</v>
       </c>
       <c r="I25" s="1">
-        <f>E25/$C25</f>
+        <f t="shared" si="1"/>
         <v>0.57749077490774903</v>
       </c>
-      <c r="J25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.89667896678966785</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.57933579335793361</v>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91881918819188191</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.79520295202952029</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1428,26 +1432,26 @@
         <v>319</v>
       </c>
       <c r="F26">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G26">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="H26" s="1">
-        <f>D26/$C26</f>
+        <f t="shared" si="0"/>
         <v>0.9274809160305344</v>
       </c>
       <c r="I26" s="1">
-        <f>E26/$C26</f>
+        <f t="shared" si="1"/>
         <v>0.60877862595419852</v>
       </c>
-      <c r="J26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.9274809160305344</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.61068702290076338</v>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91221374045801529</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83015267175572516</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1470,23 +1474,23 @@
         <v>478</v>
       </c>
       <c r="G27">
-        <v>386</v>
+        <v>545</v>
       </c>
       <c r="H27" s="1">
-        <f>D27/$C27</f>
+        <f t="shared" si="0"/>
         <v>1.0301724137931034</v>
       </c>
       <c r="I27" s="1">
-        <f>E27/$C27</f>
+        <f t="shared" si="1"/>
         <v>0.82327586206896552</v>
       </c>
-      <c r="J27" s="5">
-        <f t="shared" si="0"/>
+      <c r="J27" s="3">
+        <f t="shared" si="2"/>
         <v>1.0301724137931034</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.8318965517241379</v>
+      <c r="K27" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1745689655172413</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,26 +1510,26 @@
         <v>268</v>
       </c>
       <c r="F28">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G28">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="H28" s="1">
-        <f>D28/$C28</f>
+        <f t="shared" si="0"/>
         <v>0.84234234234234229</v>
       </c>
       <c r="I28" s="1">
-        <f>E28/$C28</f>
+        <f t="shared" si="1"/>
         <v>0.60360360360360366</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84234234234234229</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="1"/>
-        <v>0.60360360360360366</v>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.80630630630630629</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77252252252252251</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1545,26 +1549,26 @@
         <v>284</v>
       </c>
       <c r="F29">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G29">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="H29" s="1">
-        <f>D29/$C29</f>
+        <f t="shared" si="0"/>
         <v>0.81509433962264155</v>
       </c>
       <c r="I29" s="1">
-        <f>E29/$C29</f>
+        <f t="shared" si="1"/>
         <v>0.53584905660377358</v>
       </c>
-      <c r="J29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.81509433962264155</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53584905660377358</v>
+      <c r="J29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78113207547169816</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71509433962264146</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,26 +1588,26 @@
         <v>328</v>
       </c>
       <c r="F30">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G30">
-        <v>328</v>
+        <v>445</v>
       </c>
       <c r="H30" s="1">
-        <f>D30/$C30</f>
+        <f t="shared" si="0"/>
         <v>0.85620915032679734</v>
       </c>
       <c r="I30" s="1">
-        <f>E30/$C30</f>
+        <f t="shared" si="1"/>
         <v>0.53594771241830064</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.85620915032679734</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53594771241830064</v>
+      <c r="J30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86601307189542487</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72712418300653592</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,26 +1627,26 @@
         <v>261</v>
       </c>
       <c r="F31">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G31">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="H31" s="1">
-        <f>D31/$C31</f>
+        <f t="shared" si="0"/>
         <v>0.77647058823529413</v>
       </c>
       <c r="I31" s="1">
-        <f>E31/$C31</f>
+        <f t="shared" si="1"/>
         <v>0.5117647058823529</v>
       </c>
-      <c r="J31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.77647058823529413</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" si="1"/>
-        <v>0.51372549019607838</v>
+      <c r="J31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.74509803921568629</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64117647058823535</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1662,26 +1666,26 @@
         <v>261</v>
       </c>
       <c r="F32">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G32">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="H32" s="1">
-        <f>D32/$C32</f>
+        <f t="shared" si="0"/>
         <v>0.81481481481481477</v>
       </c>
       <c r="I32" s="1">
-        <f>E32/$C32</f>
+        <f t="shared" si="1"/>
         <v>0.53703703703703709</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53909465020576131</v>
+      <c r="J32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78189300411522633</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6728395061728395</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1701,26 +1705,26 @@
         <v>257</v>
       </c>
       <c r="F33">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="G33">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="H33" s="1">
-        <f>D33/$C33</f>
+        <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="I33" s="1">
-        <f>E33/$C33</f>
+        <f t="shared" si="1"/>
         <v>0.54914529914529919</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" si="1"/>
-        <v>0.55128205128205132</v>
+      <c r="J33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1740,26 +1744,26 @@
         <v>265</v>
       </c>
       <c r="F34">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G34">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="H34" s="1">
-        <f>D34/$C34</f>
+        <f t="shared" si="0"/>
         <v>0.86363636363636365</v>
       </c>
       <c r="I34" s="1">
-        <f>E34/$C34</f>
+        <f t="shared" si="1"/>
         <v>0.60227272727272729</v>
       </c>
-      <c r="J34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" si="1"/>
-        <v>0.60227272727272729</v>
+      <c r="J34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82727272727272727</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73409090909090913</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1779,26 +1783,26 @@
         <v>292</v>
       </c>
       <c r="F35">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G35">
-        <v>292</v>
+        <v>377</v>
       </c>
       <c r="H35" s="1">
-        <f>D35/$C35</f>
+        <f t="shared" si="0"/>
         <v>1.0132743362831858</v>
       </c>
       <c r="I35" s="1">
-        <f>E35/$C35</f>
+        <f t="shared" si="1"/>
         <v>0.64601769911504425</v>
       </c>
-      <c r="J35" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0132743362831858</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64601769911504425</v>
+      <c r="J35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98230088495575218</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83407079646017701</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,26 +1822,26 @@
         <v>273</v>
       </c>
       <c r="F36">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G36">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="H36" s="1">
-        <f>D36/$C36</f>
+        <f t="shared" si="0"/>
         <v>0.75899280575539574</v>
       </c>
       <c r="I36" s="1">
-        <f>E36/$C36</f>
+        <f t="shared" si="1"/>
         <v>0.49100719424460432</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.75899280575539574</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="1"/>
-        <v>0.49100719424460432</v>
+      <c r="J36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72661870503597126</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64568345323741005</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1857,26 +1861,26 @@
         <v>284</v>
       </c>
       <c r="F37">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G37">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="H37" s="1">
-        <f>D37/$C37</f>
+        <f t="shared" si="0"/>
         <v>0.86296296296296293</v>
       </c>
       <c r="I37" s="1">
-        <f>E37/$C37</f>
+        <f t="shared" si="1"/>
         <v>0.52592592592592591</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.86296296296296293</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="1"/>
-        <v>0.52592592592592591</v>
+      <c r="J37" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82962962962962961</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66851851851851851</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1896,26 +1900,26 @@
         <v>245</v>
       </c>
       <c r="F38">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G38">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="H38" s="1">
-        <f>D38/$C38</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
       <c r="I38" s="1">
-        <f>E38/$C38</f>
+        <f t="shared" si="1"/>
         <v>0.5444444444444444</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5444444444444444</v>
+      <c r="J38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.80888888888888888</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66444444444444439</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1935,26 +1939,26 @@
         <v>245</v>
       </c>
       <c r="F39">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G39">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="H39" s="1">
-        <f>D39/$C39</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
       <c r="I39" s="1">
-        <f>E39/$C39</f>
+        <f t="shared" si="1"/>
         <v>0.5444444444444444</v>
       </c>
-      <c r="J39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="K39" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5444444444444444</v>
+      <c r="J39" s="3">
+        <f t="shared" si="2"/>
+        <v>0.80888888888888888</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66444444444444439</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1974,26 +1978,26 @@
         <v>243</v>
       </c>
       <c r="F40">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G40">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="H40" s="1">
-        <f>D40/$C40</f>
+        <f t="shared" si="0"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="I40" s="1">
-        <f>E40/$C40</f>
+        <f t="shared" si="1"/>
         <v>0.51050420168067223</v>
       </c>
-      <c r="J40" s="5">
-        <f t="shared" si="0"/>
-        <v>0.79411764705882348</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="1"/>
-        <v>0.51050420168067223</v>
+      <c r="J40" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="3"/>
+        <v>0.61974789915966388</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,26 +2017,26 @@
         <v>244</v>
       </c>
       <c r="F41">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G41">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="H41" s="1">
-        <f>D41/$C41</f>
+        <f t="shared" si="0"/>
         <v>0.70300751879699253</v>
       </c>
       <c r="I41" s="1">
-        <f>E41/$C41</f>
+        <f t="shared" si="1"/>
         <v>0.45864661654135336</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70300751879699253</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="1"/>
-        <v>0.46052631578947367</v>
+      <c r="J41" s="3">
+        <f t="shared" si="2"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54699248120300747</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2052,26 +2056,26 @@
         <v>249</v>
       </c>
       <c r="F42">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G42">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="H42" s="1">
-        <f>D42/$C42</f>
+        <f t="shared" si="0"/>
         <v>0.7944664031620553</v>
       </c>
       <c r="I42" s="1">
-        <f>E42/$C42</f>
+        <f t="shared" si="1"/>
         <v>0.49209486166007904</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="0"/>
-        <v>0.7944664031620553</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="1"/>
-        <v>0.49209486166007904</v>
+      <c r="J42" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77470355731225293</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58695652173913049</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,26 +2095,26 @@
         <v>296</v>
       </c>
       <c r="F43">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G43">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="H43" s="1">
-        <f>D43/$C43</f>
+        <f t="shared" si="0"/>
         <v>0.84677419354838712</v>
       </c>
       <c r="I43" s="1">
-        <f>E43/$C43</f>
+        <f t="shared" si="1"/>
         <v>0.59677419354838712</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84677419354838712</v>
-      </c>
-      <c r="K43" s="5">
-        <f t="shared" si="1"/>
-        <v>0.594758064516129</v>
+      <c r="J43" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82661290322580649</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="3"/>
+        <v>0.80443548387096775</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2130,26 +2134,26 @@
         <v>271</v>
       </c>
       <c r="F44">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G44">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="H44" s="1">
-        <f>D44/$C44</f>
+        <f t="shared" si="0"/>
         <v>0.8582677165354331</v>
       </c>
       <c r="I44" s="1">
-        <f>E44/$C44</f>
+        <f t="shared" si="1"/>
         <v>0.53346456692913391</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="0"/>
-        <v>0.8582677165354331</v>
-      </c>
-      <c r="K44" s="5">
-        <f t="shared" si="1"/>
-        <v>0.53346456692913391</v>
+      <c r="J44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84645669291338588</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="3"/>
+        <v>0.65551181102362199</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2169,26 +2173,26 @@
         <v>302</v>
       </c>
       <c r="F45">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G45">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="H45" s="1">
-        <f>D45/$C45</f>
+        <f t="shared" si="0"/>
         <v>0.73615635179153094</v>
       </c>
       <c r="I45" s="1">
-        <f>E45/$C45</f>
+        <f t="shared" si="1"/>
         <v>0.49185667752442996</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="0"/>
-        <v>0.73615635179153094</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" si="1"/>
-        <v>0.49185667752442996</v>
+      <c r="J45" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71986970684039087</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58306188925081437</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2208,26 +2212,26 @@
         <v>298</v>
       </c>
       <c r="F46">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G46">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="H46" s="1">
-        <f>D46/$C46</f>
+        <f t="shared" si="0"/>
         <v>0.74342105263157898</v>
       </c>
       <c r="I46" s="1">
-        <f>E46/$C46</f>
+        <f t="shared" si="1"/>
         <v>0.49013157894736842</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="0"/>
-        <v>0.74342105263157898</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="1"/>
-        <v>0.49013157894736842</v>
+      <c r="J46" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72697368421052633</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58223684210526316</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2247,26 +2251,26 @@
         <v>294</v>
       </c>
       <c r="F47">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G47">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="H47" s="1">
-        <f>D47/$C47</f>
+        <f t="shared" si="0"/>
         <v>0.59317585301837272</v>
       </c>
       <c r="I47" s="1">
-        <f>E47/$C47</f>
+        <f t="shared" si="1"/>
         <v>0.38582677165354329</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="0"/>
-        <v>0.59317585301837272</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="1"/>
-        <v>0.38582677165354329</v>
+      <c r="J47" s="3">
+        <f t="shared" si="2"/>
+        <v>0.58005249343832022</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="3"/>
+        <v>0.45406824146981628</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2286,26 +2290,26 @@
         <v>277</v>
       </c>
       <c r="F48">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G48">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="H48" s="1">
-        <f>D48/$C48</f>
+        <f t="shared" si="0"/>
         <v>0.73076923076923073</v>
       </c>
       <c r="I48" s="1">
-        <f>E48/$C48</f>
+        <f t="shared" si="1"/>
         <v>0.44391025641025639</v>
       </c>
-      <c r="J48" s="5">
-        <f t="shared" si="0"/>
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="K48" s="5">
-        <f t="shared" si="1"/>
-        <v>0.44551282051282054</v>
+      <c r="J48" s="3">
+        <f t="shared" si="2"/>
+        <v>0.71474358974358976</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="3"/>
+        <v>0.53205128205128205</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,26 +2329,26 @@
         <v>278</v>
       </c>
       <c r="F49">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G49">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="H49" s="1">
-        <f>D49/$C49</f>
+        <f t="shared" si="0"/>
         <v>0.87912087912087911</v>
       </c>
       <c r="I49" s="1">
-        <f>E49/$C49</f>
+        <f t="shared" si="1"/>
         <v>0.50915750915750912</v>
       </c>
-      <c r="J49" s="5">
-        <f t="shared" si="0"/>
-        <v>0.87912087912087911</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" si="1"/>
-        <v>0.50915750915750912</v>
+      <c r="J49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60439560439560436</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,26 +2368,26 @@
         <v>333</v>
       </c>
       <c r="F50">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G50">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="H50" s="1">
-        <f>D50/$C50</f>
+        <f t="shared" si="0"/>
         <v>0.79566563467492257</v>
       </c>
       <c r="I50" s="1">
-        <f>E50/$C50</f>
+        <f t="shared" si="1"/>
         <v>0.51547987616099067</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="0"/>
-        <v>0.79566563467492257</v>
-      </c>
-      <c r="K50" s="5">
-        <f t="shared" si="1"/>
-        <v>0.51393188854489169</v>
+      <c r="J50" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78637770897832815</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="3"/>
+        <v>0.63777089783281737</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2403,31 +2407,31 @@
         <v>277</v>
       </c>
       <c r="F51">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G51">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="H51" s="1">
-        <f>D51/$C51</f>
+        <f t="shared" si="0"/>
         <v>0.84740259740259738</v>
       </c>
       <c r="I51" s="1">
-        <f>E51/$C51</f>
+        <f t="shared" si="1"/>
         <v>0.44967532467532467</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84740259740259738</v>
-      </c>
-      <c r="K51" s="5">
-        <f t="shared" si="1"/>
-        <v>0.45129870129870131</v>
+      <c r="J51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83766233766233766</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H52" s="2">
         <f>AVERAGE(H3:H51)</f>
@@ -2439,11 +2443,11 @@
       </c>
       <c r="J52" s="2">
         <f>AVERAGE(J3:J51)</f>
-        <v>0.93549856500824824</v>
+        <v>0.88218266164652259</v>
       </c>
       <c r="K52" s="2">
         <f>AVERAGE(K3:K51)</f>
-        <v>1.5993121921175784</v>
+        <v>0.82288020929490724</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
